--- a/data/trans_bre/P19C06-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.219790838067422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.346792491890921</v>
+        <v>1.346792491890922</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3782364818716199</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.303089680411161</v>
+        <v>-1.346911607133019</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.416458851665202</v>
+        <v>-1.734077016576363</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.631775664484153</v>
+        <v>-1.768158835439417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1078941012229524</v>
+        <v>0.1331315742348105</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7264101083100312</v>
+        <v>-0.8136348449136277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7552211238127067</v>
+        <v>-0.8422692125503101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7646856186626312</v>
+        <v>-0.7808047513522803</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1766973346632881</v>
+        <v>-0.1422033366167028</v>
       </c>
     </row>
     <row r="6">
@@ -692,27 +692,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.836201690650812</v>
+        <v>2.677689645335085</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.782610028068973</v>
+        <v>2.466525943880933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.688342138847833</v>
+        <v>2.537063353417242</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.785376667358362</v>
+        <v>2.860517275898852</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.792619420034478</v>
+        <v>4.452164891074164</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6.455732936837959</v>
+        <v>5.09726677711157</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.524424561815051</v>
-      </c>
-      <c r="J6" s="6" t="inlineStr"/>
+        <v>3.736048007868853</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>16.50482215066132</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -735,7 +737,7 @@
         <v>0.5974862785699124</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.1125870099123801</v>
+        <v>-0.11258700991238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.08583207262682313</v>
@@ -747,7 +749,7 @@
         <v>0.9554842065169502</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1610539153753058</v>
+        <v>-0.1610539153753055</v>
       </c>
     </row>
     <row r="8">
@@ -758,26 +760,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.147683815015843</v>
+        <v>-1.976622052871092</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.08916061351875566</v>
+        <v>0.03995876892874889</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7377016106823928</v>
+        <v>-0.6443828842733169</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.042433217388757</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-1.195866836497963</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.5118627117618966</v>
+        <v>-0.6033817619706561</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.8744473368838718</v>
+        <v>-0.9084938296670849</v>
       </c>
     </row>
     <row r="9">
@@ -788,24 +788,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.449184498094945</v>
+        <v>1.434429194331607</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.101916633438667</v>
+        <v>4.573639550913422</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.25502879842045</v>
+        <v>2.62979568109407</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8357519751183201</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>3.476926184280135</v>
-      </c>
+        <v>0.6773358080082017</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>3.86846170183422</v>
+        <v>2.811191877219743</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +827,7 @@
         <v>-1.70111820478962</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.3933314953386795</v>
+        <v>-0.3933314953386793</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1425536565602539</v>
@@ -841,7 +839,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3639659990489822</v>
+        <v>-0.3639659990489821</v>
       </c>
     </row>
     <row r="11">
@@ -852,22 +850,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.115277517763531</v>
+        <v>-1.952974559217613</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.448518473777489</v>
+        <v>-1.468198971607664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.589793417680196</v>
+        <v>-3.733907084795053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.506464472106399</v>
+        <v>-1.658946764763208</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6563519541453856</v>
+        <v>-0.6500686579232882</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
@@ -882,26 +880,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.833609018568789</v>
+        <v>2.765325094443635</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.36210591070577</v>
+        <v>3.897448048992624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.6834052744926381</v>
+        <v>-0.7050924377361787</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9920943139799628</v>
+        <v>1.057865819006622</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.42672022723495</v>
+        <v>4.063181704244101</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.150009843748691</v>
+        <v>3.314256369375041</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>3.849858722337854</v>
+        <v>2.709178037665701</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +923,7 @@
         <v>0.8053238522380286</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.424314113336362</v>
+        <v>0.4243141133363619</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1670460361648723</v>
@@ -937,7 +935,7 @@
         <v>1.062104958893163</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5937447313842105</v>
+        <v>0.5937447313842102</v>
       </c>
     </row>
     <row r="14">
@@ -948,28 +946,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.237096752043328</v>
+        <v>-1.233014010030999</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.3605315600218242</v>
+        <v>-0.3369916390952329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2797422925404921</v>
+        <v>-0.2871337977500701</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.5529706828640669</v>
+        <v>-0.4577422305812971</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7635551616895736</v>
+        <v>-0.7594324379923488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6201330785849551</v>
+        <v>-0.5883186941473593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4065613888667592</v>
+        <v>-0.3619741077556782</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5983118246927596</v>
+        <v>-0.4909599556546314</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +978,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8883786097422267</v>
+        <v>0.9289700559811003</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.466402153072349</v>
+        <v>1.521795715217851</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.019433508870429</v>
+        <v>1.9096095190594</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.369709844625402</v>
+        <v>1.264128644868741</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.484802139886449</v>
+        <v>1.427660230385585</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7.045620324179482</v>
+        <v>7.017720444244774</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.992085139009661</v>
+        <v>6.437590506310864</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.898412393817265</v>
+        <v>4.287927762557715</v>
       </c>
     </row>
     <row r="16">
@@ -1050,26 +1048,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4555606894748589</v>
+        <v>0.4552062239762867</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.064113672661165</v>
+        <v>-1.176921973550274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.784952786776366</v>
+        <v>-2.530163998175064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.216340073753475</v>
+        <v>-0.05423587885438935</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.6419664321060424</v>
+        <v>-0.6959953665709475</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8604314786494573</v>
+        <v>-0.8481878779815294</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3068513984356062</v>
+        <v>-0.2802201632437977</v>
       </c>
     </row>
     <row r="18">
@@ -1080,26 +1078,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.492345254000838</v>
+        <v>2.742175287352119</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.442982110122841</v>
+        <v>1.483373431041953</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7327997111744903</v>
+        <v>0.9194441862830841</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.943437899410292</v>
+        <v>2.062671096798026</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>5.851674357179169</v>
+        <v>4.533032473403597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.952209105849228</v>
+        <v>1.415960456928851</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15.67036838342484</v>
+        <v>14.92964536003164</v>
       </c>
     </row>
     <row r="19">
@@ -1123,7 +1121,7 @@
         <v>0.5516748653624554</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.6301512600991855</v>
+        <v>-0.6301512600991854</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1137,7 +1135,7 @@
         <v>0.6819132834238087</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.6681396441542881</v>
+        <v>-0.6681396441542879</v>
       </c>
     </row>
     <row r="20">
@@ -1148,21 +1146,21 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3830299322134961</v>
+        <v>0.4054929871805854</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.111980114888057</v>
+        <v>-1.037464189224216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.264915379898334</v>
+        <v>-1.058712953314259</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.069525414243766</v>
+        <v>-3.146867365337335</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.6617789300076523</v>
+        <v>-0.6844682612901339</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
     </row>
@@ -1174,16 +1172,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.62621940377151</v>
+        <v>1.682731948778114</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.47011193634521</v>
+        <v>1.469089630218651</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.707553183548461</v>
+        <v>1.694747825103149</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2738873677375946</v>
+        <v>0.2786076301369018</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1211,7 +1209,7 @@
         <v>0.1504890794891784</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3419652790128369</v>
+        <v>0.341965279012837</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02796040937717678</v>
@@ -1223,7 +1221,7 @@
         <v>0.1264615922985091</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4533622838086806</v>
+        <v>0.4533622838086808</v>
       </c>
     </row>
     <row r="23">
@@ -1234,28 +1232,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5514421130758423</v>
+        <v>-0.5630081039207563</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1585880854764557</v>
+        <v>-0.1113957749589004</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5043095220625303</v>
+        <v>-0.5083066971128753</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1063816595767775</v>
+        <v>-0.1114166816167409</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3944572375908831</v>
+        <v>-0.3940405959086483</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.136465848185729</v>
+        <v>-0.09803654481620963</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3264454114622037</v>
+        <v>-0.338802815101135</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1166569976106687</v>
+        <v>-0.1134273270195129</v>
       </c>
     </row>
     <row r="24">
@@ -1266,28 +1264,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5681660279596712</v>
+        <v>0.6084344254844071</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.027005364939322</v>
+        <v>1.0236651404423</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.727388327180768</v>
+        <v>0.7317770983829867</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7704549817884954</v>
+        <v>0.7882341510427385</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.699653975029087</v>
+        <v>0.7230946968414915</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.470488729206983</v>
+        <v>1.504796571614786</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8378289923433396</v>
+        <v>0.8993577993960017</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.425645922031109</v>
+        <v>1.542063674162729</v>
       </c>
     </row>
     <row r="25">
